--- a/2024 2 25/Half side measurement.xlsx
+++ b/2024 2 25/Half side measurement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRYAN\Documents\Measurement data\2024 2 25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC870AB8-BBB2-4E82-98D7-7C462C0CE318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9DD30F-5AED-4F86-9796-688F1EDF95DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Measurement 1</t>
-  </si>
-  <si>
     <t>d(mm)</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>avg</t>
+  </si>
+  <si>
+    <t>Measurement 1mm</t>
   </si>
 </sst>
 </file>
@@ -366,25 +366,25 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
         <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -455,6 +455,10 @@
         <f>AVERAGE(B5:F5)</f>
         <v>146.6</v>
       </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H8" si="0">G5*2</f>
+        <v>293.2</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -479,6 +483,10 @@
         <f>AVERAGE(B6:F6)</f>
         <v>124.6</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>249.2</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -503,6 +511,10 @@
         <f>AVERAGE(B7:F7)</f>
         <v>111.2</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>222.4</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -526,6 +538,10 @@
       <c r="G8">
         <f>AVERAGE(B8:F8)</f>
         <v>93</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
